--- a/data/trans_bre/P16B01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B01-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B01-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,75</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,34%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,61; 6,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,1; 6,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,22; 1,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,53; 8,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,79; 8,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,62; 1,82</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,82</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,18%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,59; 21,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,12; 15,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 23,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,11; 34,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,47; 26,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 49,9</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,92%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,59; 8,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,13; 29,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,55; 34,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,03; 14,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,62; 90,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,38; 96,61</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,89%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,59; 6,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; 9,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 14,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,2; 8,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,22; 14,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,18; 25,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B01-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 6,93</t>
+          <t>-18,94; 6,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 6,69</t>
+          <t>-13,71; 6,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-30,22; 1,6</t>
+          <t>-26,96; 3,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 8,65</t>
+          <t>-22,23; 8,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 8,08</t>
+          <t>-15,56; 7,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,62; 1,82</t>
+          <t>-31,71; 4,08</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 21,59</t>
+          <t>-4,72; 21,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 15,86</t>
+          <t>-5,45; 15,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 23,22</t>
+          <t>1,78; 23,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 34,54</t>
+          <t>-5,93; 34,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 26,59</t>
+          <t>-7,71; 26,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 49,9</t>
+          <t>3,12; 52,37</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 8,55</t>
+          <t>-36,35; 6,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,13; 29,63</t>
+          <t>-15,84; 30,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 34,58</t>
+          <t>-9,64; 32,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-45,03; 14,46</t>
+          <t>-47,31; 12,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,62; 90,02</t>
+          <t>-29,05; 92,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 96,61</t>
+          <t>-15,48; 84,59</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 6,4</t>
+          <t>-10,11; 6,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 9,67</t>
+          <t>-5,6; 10,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 14,31</t>
+          <t>-2,42; 15,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 8,94</t>
+          <t>-12,78; 8,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 14,57</t>
+          <t>-7,45; 16,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 25,77</t>
+          <t>-3,31; 28,61</t>
         </is>
       </c>
     </row>
